--- a/biology/Botanique/Lindernia/Lindernia.xlsx
+++ b/biology/Botanique/Lindernia/Lindernia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lindernia est un genre de plantes de la famille des Linderniaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (26 septembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (26 septembre 2017) :
 Lindernia alsinoides R. Br.
 Lindernia alterniflora (C. Wright) Alain
 Lindernia barkeri Wannan
@@ -549,10 +563,10 @@
 Lindernia tamilnadensis M.G.Prasad &amp; Sunojk.
 Lindernia tridentata (Small) D.Q. Lewis
 Lindernia viguieri (Bonati) Eb. Fischer
-Selon GRIN            (26 septembre 2017)[3] :
+Selon GRIN            (26 septembre 2017) :
 Lindernia dubia (L.) Pennell
 Lindernia procumbens (Krock.) Philcox
-Selon ITIS      (26 septembre 2017)[4] :
+Selon ITIS      (26 septembre 2017) :
 Lindernia antipoda (L.) Alston
 Lindernia brucei Howard
 Lindernia ciliata (Colsmann) Pennell
@@ -562,7 +576,7 @@
 Lindernia grandiflora Nutt.
 Lindernia monticola Nutt.
 Lindernia procumbens (Krock.) Philcox
-Selon NCBI  (26 septembre 2017)[5] :
+Selon NCBI  (26 septembre 2017) :
 Lindernia acicularis
 Lindernia antipoda
 Lindernia brevidens
@@ -590,7 +604,7 @@
 Lindernia viguieri
 Lindernia welwitschii
 Lindernia yaundensis
-Selon The Plant List            (26 septembre 2017)[6] :
+Selon The Plant List            (26 septembre 2017) :
 Lindernia abyssinica Engl.
 Lindernia alterniflora (C. Wright) A. H. Liogier
 Lindernia anagallis (Burm.f.) Pennell
@@ -676,7 +690,7 @@
 Lindernia yaoshanensis Tsoong
 Lindernia yaundensis (S. Moore) Eb. Fisch.
 Lindernia zanzibarica Eb. Fisch. &amp; Hepper
-Selon Tropicos                                           (26 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (26 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Lindernia abyssinica Engl.
 Lindernia acicularis Eb. Fisch.
 Lindernia aculeata (Bonati) T. Yamaz.
